--- a/pms-server/uploadfiles/template/order_transport.xlsx
+++ b/pms-server/uploadfiles/template/order_transport.xlsx
@@ -27,10 +27,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="@" numFmtId="165"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="DejaVu Sans"/>
       <family val="2"/>
@@ -49,6 +50,12 @@
     <font>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="DejaVu Sans"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -94,8 +101,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -116,19 +125,20 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.73725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.18823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="4.20392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.52941176470588"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
